--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spon2-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spon2-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H2">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I2">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J2">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N2">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O2">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P2">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q2">
-        <v>0.429230869817111</v>
+        <v>0.2753083938000001</v>
       </c>
       <c r="R2">
-        <v>3.863077828353999</v>
+        <v>2.4777755442</v>
       </c>
       <c r="S2">
-        <v>0.0004944910273183313</v>
+        <v>0.0002896757458232955</v>
       </c>
       <c r="T2">
-        <v>0.000513276459512129</v>
+        <v>0.0002969753831289408</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H3">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I3">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J3">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N3">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O3">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P3">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q3">
-        <v>78.61511904508198</v>
+        <v>47.88398382518666</v>
       </c>
       <c r="R3">
-        <v>707.5360714057379</v>
+        <v>430.9558544266799</v>
       </c>
       <c r="S3">
-        <v>0.0905677427066682</v>
+        <v>0.05038287622144982</v>
       </c>
       <c r="T3">
-        <v>0.09400835961490217</v>
+        <v>0.05165249139681266</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H4">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I4">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J4">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N4">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O4">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P4">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q4">
-        <v>3.596699361600666</v>
+        <v>0.85528863914</v>
       </c>
       <c r="R4">
-        <v>21.580196169604</v>
+        <v>5.13173183484</v>
       </c>
       <c r="S4">
-        <v>0.004143540661534683</v>
+        <v>0.0008999230681540916</v>
       </c>
       <c r="T4">
-        <v>0.002867300939217973</v>
+        <v>0.0006150670230537952</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H5">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I5">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J5">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N5">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O5">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P5">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q5">
-        <v>73.22094207157177</v>
+        <v>39.15905370693334</v>
       </c>
       <c r="R5">
-        <v>658.988478644146</v>
+        <v>352.4314833624</v>
       </c>
       <c r="S5">
-        <v>0.08435343637239992</v>
+        <v>0.04120262347152016</v>
       </c>
       <c r="T5">
-        <v>0.08755797532608138</v>
+        <v>0.04224090234615758</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -794,40 +794,40 @@
         <v>13.850705</v>
       </c>
       <c r="I6">
-        <v>0.7109062584872947</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J6">
-        <v>0.7322371094632415</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N6">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O6">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P6">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q6">
-        <v>1.699399938237222</v>
+        <v>2.339453328025</v>
       </c>
       <c r="R6">
-        <v>15.294599444135</v>
+        <v>21.055079952225</v>
       </c>
       <c r="S6">
-        <v>0.001957776293307349</v>
+        <v>0.002461540958706623</v>
       </c>
       <c r="T6">
-        <v>0.002032151098464074</v>
+        <v>0.002523570163673302</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>13.850705</v>
       </c>
       <c r="I7">
-        <v>0.7109062584872947</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J7">
-        <v>0.7322371094632415</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N7">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O7">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P7">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q7">
-        <v>311.250979004955</v>
+        <v>406.8976749045571</v>
       </c>
       <c r="R7">
-        <v>2801.258811044595</v>
+        <v>3662.079074141014</v>
       </c>
       <c r="S7">
-        <v>0.3585735024779921</v>
+        <v>0.4281321968605463</v>
       </c>
       <c r="T7">
-        <v>0.3721955053964729</v>
+        <v>0.4389208452061952</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>13.850705</v>
       </c>
       <c r="I8">
-        <v>0.7109062584872947</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J8">
-        <v>0.7322371094632415</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N8">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O8">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P8">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q8">
-        <v>14.23996059641833</v>
+        <v>7.267878126199165</v>
       </c>
       <c r="R8">
-        <v>85.43976357851</v>
+        <v>43.60726875719499</v>
       </c>
       <c r="S8">
-        <v>0.0164050007570419</v>
+        <v>0.007647162470058907</v>
       </c>
       <c r="T8">
-        <v>0.01135214492166123</v>
+        <v>0.005226577272783574</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>13.850705</v>
       </c>
       <c r="I9">
-        <v>0.7109062584872947</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J9">
-        <v>0.7322371094632415</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N9">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O9">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P9">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q9">
-        <v>289.8944907832906</v>
+        <v>332.7569394180777</v>
       </c>
       <c r="R9">
-        <v>2609.050417049615</v>
+        <v>2994.8124547627</v>
       </c>
       <c r="S9">
-        <v>0.3339699789589535</v>
+        <v>0.3501223238178247</v>
       </c>
       <c r="T9">
-        <v>0.3466573080466433</v>
+        <v>0.3589451749309409</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.5675655000000001</v>
+        <v>0.073119</v>
       </c>
       <c r="H10">
-        <v>1.135131</v>
+        <v>0.219357</v>
       </c>
       <c r="I10">
-        <v>0.08739321198122495</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J10">
-        <v>0.0600103057788119</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N10">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O10">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P10">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q10">
-        <v>0.2089108335595</v>
+        <v>0.037050494085</v>
       </c>
       <c r="R10">
-        <v>1.253465001357</v>
+        <v>0.333454446765</v>
       </c>
       <c r="S10">
-        <v>0.0002406735861024689</v>
+        <v>3.898402572858268E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001665444256123153</v>
+        <v>3.996639740669406E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.5675655000000001</v>
+        <v>0.073119</v>
       </c>
       <c r="H11">
-        <v>1.135131</v>
+        <v>0.219357</v>
       </c>
       <c r="I11">
-        <v>0.08739321198122495</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J11">
-        <v>0.0600103057788119</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N11">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O11">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P11">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q11">
-        <v>38.2627420462215</v>
+        <v>6.444137917458999</v>
       </c>
       <c r="R11">
-        <v>229.576452277329</v>
+        <v>57.99724125713099</v>
       </c>
       <c r="S11">
-        <v>0.04408020008093585</v>
+        <v>0.006780434231090681</v>
       </c>
       <c r="T11">
-        <v>0.03050318783312501</v>
+        <v>0.006951296691532696</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.5675655000000001</v>
+        <v>0.073119</v>
       </c>
       <c r="H12">
-        <v>1.135131</v>
+        <v>0.219357</v>
       </c>
       <c r="I12">
-        <v>0.08739321198122495</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J12">
-        <v>0.0600103057788119</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N12">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O12">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P12">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q12">
-        <v>1.7505485148705</v>
+        <v>0.1151031620505</v>
       </c>
       <c r="R12">
-        <v>7.002194059482001</v>
+        <v>0.690618972303</v>
       </c>
       <c r="S12">
-        <v>0.002016701487145427</v>
+        <v>0.0001211099808958975</v>
       </c>
       <c r="T12">
-        <v>0.0009303621452532735</v>
+        <v>8.277458157010683E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5675655000000001</v>
+        <v>0.073119</v>
       </c>
       <c r="H13">
-        <v>1.135131</v>
+        <v>0.219357</v>
       </c>
       <c r="I13">
-        <v>0.08739321198122495</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J13">
-        <v>0.0600103057788119</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N13">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O13">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P13">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q13">
-        <v>35.63734371831551</v>
+        <v>5.269952970619999</v>
       </c>
       <c r="R13">
-        <v>213.824062309893</v>
+        <v>47.42957673557999</v>
       </c>
       <c r="S13">
-        <v>0.04105563682704121</v>
+        <v>0.005544972807211372</v>
       </c>
       <c r="T13">
-        <v>0.0284102113748213</v>
+        <v>0.005684702456468924</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1281,49 +1281,49 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1437943333333333</v>
+        <v>0.3762535</v>
       </c>
       <c r="H14">
-        <v>0.431383</v>
+        <v>0.752507</v>
       </c>
       <c r="I14">
-        <v>0.02214131876355931</v>
+        <v>0.0642475070420447</v>
       </c>
       <c r="J14">
-        <v>0.02280567241823297</v>
+        <v>0.0437690215344491</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N14">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O14">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P14">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q14">
-        <v>0.05292815373344444</v>
+        <v>0.1906532922525</v>
       </c>
       <c r="R14">
-        <v>0.4763533836009999</v>
+        <v>1.143919753515</v>
       </c>
       <c r="S14">
-        <v>6.097533740959785E-05</v>
+        <v>0.0002006027998805958</v>
       </c>
       <c r="T14">
-        <v>6.329175571270399E-05</v>
+        <v>0.0001371052385532221</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1437943333333333</v>
+        <v>0.3762535</v>
       </c>
       <c r="H15">
-        <v>0.431383</v>
+        <v>0.752507</v>
       </c>
       <c r="I15">
-        <v>0.02214131876355931</v>
+        <v>0.0642475070420447</v>
       </c>
       <c r="J15">
-        <v>0.02280567241823297</v>
+        <v>0.0437690215344491</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N15">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O15">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P15">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q15">
-        <v>9.693974499933001</v>
+        <v>33.16004658059683</v>
       </c>
       <c r="R15">
-        <v>87.24577049939698</v>
+        <v>198.960279483581</v>
       </c>
       <c r="S15">
-        <v>0.0111678440353371</v>
+        <v>0.0348905498019349</v>
       </c>
       <c r="T15">
-        <v>0.01159210406289403</v>
+        <v>0.02384651239511479</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1437943333333333</v>
+        <v>0.3762535</v>
       </c>
       <c r="H16">
-        <v>0.431383</v>
+        <v>0.752507</v>
       </c>
       <c r="I16">
-        <v>0.02214131876355931</v>
+        <v>0.0642475070420447</v>
       </c>
       <c r="J16">
-        <v>0.02280567241823297</v>
+        <v>0.0437690215344491</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N16">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O16">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P16">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q16">
-        <v>0.4435064440376666</v>
+        <v>0.59229430903825</v>
       </c>
       <c r="R16">
-        <v>2.661038664226</v>
+        <v>2.369177236153</v>
       </c>
       <c r="S16">
-        <v>0.0005109370563862999</v>
+        <v>0.0006232040125961045</v>
       </c>
       <c r="T16">
-        <v>0.0003535648425651249</v>
+        <v>0.0002839592629985657</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1437943333333333</v>
+        <v>0.3762535</v>
       </c>
       <c r="H17">
-        <v>0.431383</v>
+        <v>0.752507</v>
       </c>
       <c r="I17">
-        <v>0.02214131876355931</v>
+        <v>0.0642475070420447</v>
       </c>
       <c r="J17">
-        <v>0.02280567241823297</v>
+        <v>0.0437690215344491</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,276 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N17">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O17">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P17">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q17">
-        <v>9.028822368072111</v>
+        <v>27.11796181609667</v>
       </c>
       <c r="R17">
-        <v>81.25940131264899</v>
+        <v>162.70777089658</v>
       </c>
       <c r="S17">
-        <v>0.01040156233442632</v>
+        <v>0.02853315042763309</v>
       </c>
       <c r="T17">
-        <v>0.01079671175706111</v>
+        <v>0.01950144463778252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.740156</v>
+      </c>
+      <c r="I18">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J18">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.506715</v>
+      </c>
+      <c r="N18">
+        <v>1.520145</v>
+      </c>
+      <c r="O18">
+        <v>0.003122343715987576</v>
+      </c>
+      <c r="P18">
+        <v>0.003132472094339857</v>
+      </c>
+      <c r="Q18">
+        <v>0.12501604918</v>
+      </c>
+      <c r="R18">
+        <v>1.12514444262</v>
+      </c>
+      <c r="S18">
+        <v>0.0001315401858484792</v>
+      </c>
+      <c r="T18">
+        <v>0.0001348549115776978</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.740156</v>
+      </c>
+      <c r="I19">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J19">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>88.13219433333332</v>
+      </c>
+      <c r="N19">
+        <v>264.396583</v>
+      </c>
+      <c r="O19">
+        <v>0.5430646480820168</v>
+      </c>
+      <c r="P19">
+        <v>0.5448262620252092</v>
+      </c>
+      <c r="Q19">
+        <v>21.74385747632755</v>
+      </c>
+      <c r="R19">
+        <v>195.694717286948</v>
+      </c>
+      <c r="S19">
+        <v>0.02287859096699515</v>
+      </c>
+      <c r="T19">
+        <v>0.0234551163355538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.740156</v>
+      </c>
+      <c r="I20">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J20">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.5741895</v>
+      </c>
+      <c r="N20">
+        <v>3.148379</v>
+      </c>
+      <c r="O20">
+        <v>0.009700049718478087</v>
+      </c>
+      <c r="P20">
+        <v>0.006487676741301404</v>
+      </c>
+      <c r="Q20">
+        <v>0.3883819345206667</v>
+      </c>
+      <c r="R20">
+        <v>2.330291607124</v>
+      </c>
+      <c r="S20">
+        <v>0.0004086501867730863</v>
+      </c>
+      <c r="T20">
+        <v>0.0002792986008953623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.740156</v>
+      </c>
+      <c r="I21">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J21">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>72.07364666666666</v>
+      </c>
+      <c r="N21">
+        <v>216.22094</v>
+      </c>
+      <c r="O21">
+        <v>0.4441129584835175</v>
+      </c>
+      <c r="P21">
+        <v>0.4455535891391496</v>
+      </c>
+      <c r="Q21">
+        <v>17.78191400740444</v>
+      </c>
+      <c r="R21">
+        <v>160.03722606664</v>
+      </c>
+      <c r="S21">
+        <v>0.01870988795932813</v>
+      </c>
+      <c r="T21">
+        <v>0.01918136476779958</v>
       </c>
     </row>
   </sheetData>
